--- a/biology/Zoologie/Balto_2___La_Quête_du_loup/Balto_2___La_Quête_du_loup.xlsx
+++ b/biology/Zoologie/Balto_2___La_Quête_du_loup/Balto_2___La_Quête_du_loup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Balto_2_:_La_Qu%C3%AAte_du_loup</t>
+          <t>Balto_2_:_La_Quête_du_loup</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balto 2 : La Quête du loup (Balto II: Wolf Quest) est un film d'animation américain réalisé par Phil Weinstein, sorti directement en vidéo en février 2002 aux États-Unis. C'est le treizième long métrage d'animation des Universal Cartoon Studios plus connu aujourd'hui sous le nom de Universal Animation Studios.
 Ce film est le deuxième de la trilogie Balto qui a débuté en 1995 avec Balto, Chien-Loup, Héros des neiges. Bien que le premier film ait été un échec commercial pour les studios Amblimation, ce qui avait, en partie, causé la fermeture de la filière d'Amblin Entertainment, le distributeur Universal Pictures, qui avait distribué le film de 1995, décida malgré tout de produire une suite, par l'intermédiaire de sa filière spécialisée dans les films d'animation.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Balto_2_:_La_Qu%C3%AAte_du_loup</t>
+          <t>Balto_2_:_La_Quête_du_loup</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques mois après l'épidémie de Diphtérie enrayée, Balto et Jenna sont les heureux parents de six petits chiots. Néanmoins, même si cinq des chiots ressemblent à leur mère, l'un d'eux a l'apparence du chien-loup. Six semaines après la naissance des chiots, ils sont donnés aux enfants du quartier à contre-cœur par les deux parents. Mais Aleu n'est accepté par personne du fait de son apparence de loup et reste avec ses parents. Un an après, un chasseur manque de tuer la fille de Balto et celui-ci est obligé de lui avouer le regard des gens sur elle. N'acceptant pas cet héritage, elle s'enfuit pour trouver sa place dans le monde et son père part à sa recherche, hanté par les cauchemars d'un corbeau et d'une meute de loups.
 Durant son parcours, Balto rencontre le même corbeau que dans ses rêves ou encore un renard femelle qui le fait tomber dans un fleuve. Il rencontre aussi un trio de gloutons qui disparaît aussi vite qu'apparu. Quant à Aleu, elle trouve refuge dans une grotte (indiquée par le corbeau) et rencontre une souris du nom de Muru, qui lui apprend que chaque être sur terre a un guide spirituel. Il se révèlera par la suite que Muru est le guide spirituel d'Aleu. Lorsque la jeune louve tente de sortir de la grotte, elle est attaquée par un ours et Balto arrive, commençant à se battre face au grizzli. Au milieu du combat, Aleu suit un signe de l'ours lui indiquant une plateforme et le père et sa fille poursuivent leur route.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Balto_2_:_La_Qu%C3%AAte_du_loup</t>
+          <t>Balto_2_:_La_Quête_du_loup</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Titre : Balto 2 : La Quête du Loup
 Titre original : Balto II: Wolf Quest
@@ -572,7 +588,7 @@
 Date de sortie DVD :
  États-Unis : 19 février 2002
  France : 8 octobre 2002
-Sauf mention contraire, les informations proviennent de l'Internet Movie Database[1].
+Sauf mention contraire, les informations proviennent de l'Internet Movie Database.
 </t>
         </is>
       </c>
@@ -583,7 +599,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Balto_2_:_La_Qu%C3%AAte_du_loup</t>
+          <t>Balto_2_:_La_Quête_du_loup</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,8 +619,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Voix originales
-Maurice LaMarche : Balto
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Maurice LaMarche : Balto
 Jodi Benson : Jenna
 Lacey Chabert : Aleu
 David Carradine : Nava
@@ -618,9 +639,43 @@
 Nicolette Little : Dingo
 Melanie Spore : Saba
 Monnae Michaell : Aniu
-Mary Kay Bergman : Le renard / Le troisième glouton
-Voix françaises
-Philippe Vincent : Balto
+Mary Kay Bergman : Le renard / Le troisième glouton</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Balto_2_:_La_Quête_du_loup</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balto_2_:_La_Qu%C3%AAte_du_loup</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Vincent : Balto
 Rafaèle Moutier : Jenna
 Valérie de Vulpian : Aleu
 Patrick Préjean : Boris
@@ -631,8 +686,8 @@
 Guillaume Lebon : Yak
 Marc Bretonnière, Gérard Surugue et Marie-Martine : des loups de la meute
 Marine Jolivet : la renarde
-Sauf mention contraire, les informations proviennent de l'Internet Movie Database[1] et notrecinema.com[2]
- Source et légende : version française (VF) sur RS Doublage[3] et Planète Jeunesse[4]
+Sauf mention contraire, les informations proviennent de l'Internet Movie Database et notrecinema.com
+ Source et légende : version française (VF) sur RS Doublage et Planète Jeunesse
 </t>
         </is>
       </c>
